--- a/App_Data/XlsIO/TemplateMarkerImageWithSize&Position.xlsx
+++ b/App_Data/XlsIO/TemplateMarkerImageWithSize&Position.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SVN Samples\_Trunk\Common\Data\XlsIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Syncfusion\ASP.NET MVC - EJ2\16.3.0.29\App_Data\XlsIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{305376FC-F15D-465F-B190-AD776EEB22E7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="15195" windowHeight="11700"/>
+    <workbookView xWindow="480" yWindow="110" windowWidth="15200" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
     <sheet name="Product Details" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -70,13 +71,13 @@
     <t>%Customers.SalesPerson</t>
   </si>
   <si>
-    <t>%Customers.Image;insert:copystyles;size:70;position:middle-center</t>
+    <t>%Customers.Hyperlink.Image;insert:copystyles;size:70;position:middle-center</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -253,7 +254,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1027" name="Rectangle 3"/>
+        <xdr:cNvPr id="1027" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -310,7 +317,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4"/>
+        <xdr:cNvPr id="3" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -353,7 +366,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2049" name="Rectangle 1"/>
+        <xdr:cNvPr id="2049" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -410,7 +429,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -520,6 +545,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -555,6 +597,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -730,23 +789,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
@@ -763,7 +822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>16</v>
       </c>
@@ -780,42 +839,42 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
     </row>
-    <row r="9" spans="1:5" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="5" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -832,23 +891,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:D14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="2" max="2" width="25.81640625" customWidth="1"/>
+    <col min="3" max="3" width="25.26953125" customWidth="1"/>
+    <col min="4" max="4" width="24.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -862,7 +921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -877,55 +936,55 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
